--- a/biology/Botanique/Liste_de_prix_littéraires_gastronomiques_et_culinaires/Liste_de_prix_littéraires_gastronomiques_et_culinaires.xlsx
+++ b/biology/Botanique/Liste_de_prix_littéraires_gastronomiques_et_culinaires/Liste_de_prix_littéraires_gastronomiques_et_culinaires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_de_prix_litt%C3%A9raires_gastronomiques_et_culinaires</t>
+          <t>Liste_de_prix_littéraires_gastronomiques_et_culinaires</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Prix littéraires gastronomiques et culinaires sont des récompenses françaises décernées dans le domaine des arts culinaires et arts de la table.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_de_prix_litt%C3%A9raires_gastronomiques_et_culinaires</t>
+          <t>Liste_de_prix_littéraires_gastronomiques_et_culinaires</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Ces différents titres récompensent chacun à leur manière le meilleur ouvrage littéraire soulignant les savoir-faire gastronomiques et la culture alimentaire.
 Prix Végétaux d'Art Culinaire du Meilleur Livre sur la Cuisine et l'Art Culinaire organisé par le FILAF, Festival International du Livre d'Art et du Film, en association avec Maison Sales / Végétaux d'Art Culinaire
@@ -527,19 +541,19 @@
 Prix Amunategui-Curnonsky de l'APCIG
 Prix Archestrate
 Prix des Étudiants de l'École Le Cordon Bleu
-Prix du Gourmet Breton[1]
+Prix du Gourmet Breton
 Prix du livre gourmand d’Antibes
 Prix littéraire Culture-Gastronomie
-Prix Jean-Charles Taugourdeau et Prix Jean Carmet de Saumur[2]
+Prix Jean-Charles Taugourdeau et Prix Jean Carmet de Saumur
 Prix La Mazille et Mention Spéciale du Jury du Salon international du livre gourmand
-Prix Littéraire de la Commanderie des Gastronomes Ambassadeurs de Rungis[3]
+Prix Littéraire de la Commanderie des Gastronomes Ambassadeurs de Rungis
 Prix Littéraire de la Gastronomie Antonin Carême
 Prix Livres en Vignes et Prix du clos de Vougeot
 Prix de la Paulée de Printemps
-Prix Montesquieu à Bordeaux[4]
+Prix Montesquieu à Bordeaux
 Prix Le Figaro du livre gourmand
-Prix Saint-Estèphe - Lire dans le vignoble[5]
-Prix Seb du livre de Cuisine[6]
+Prix Saint-Estèphe - Lire dans le vignoble
+Prix Seb du livre de Cuisine
 Gourmand World Cookbook Awards et Award Gourmand France</t>
         </is>
       </c>
